--- a/data/dm464.xlsx
+++ b/data/dm464.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Teaching\431\2025-431\431-slides-2025\c05\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Teaching\431\2024-431\431-slides-2024\c18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37BC556E-877D-48CC-A3B7-363272402551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DC589EF-0888-4B7F-A1C2-92705DB46DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{7DE42253-33D2-4B2F-B3D2-C39B4818AB41}"/>
   </bookViews>
@@ -2001,7 +2001,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U31" sqref="U31"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61572,7 +61572,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AP465">
-    <sortCondition ref="A4:A465"/>
+    <sortCondition ref="A2:A465"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
